--- a/Data/Figure/SI_table_countryGroup.xlsx
+++ b/Data/Figure/SI_table_countryGroup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,25 +360,35 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Country.ISO3.Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Country.Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country.ISO3.Code</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Income.Group</t>
+          <t>Income.Group.4.categories</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Income.Group.2.categories</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Development.status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>abbr</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
@@ -387,14 +397,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ABW</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Aruba</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ABW</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>High income</t>
@@ -402,10 +412,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>aw</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/aw.png)</t>
         </is>
@@ -414,14 +434,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AFG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Afghanistan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AFG</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -429,10 +449,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>af</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/af.png)</t>
         </is>
@@ -441,25 +471,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Angola</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AGO</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>ao</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ao.png)</t>
         </is>
@@ -468,25 +508,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Albania</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ALB</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>al</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/al.png)</t>
         </is>
@@ -495,14 +545,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>AND</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Andorra</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>High income</t>
@@ -510,10 +560,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>ad</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ad.png)</t>
         </is>
@@ -522,20 +582,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Netherlands Antilles</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>High income</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/NA.png)</t>
         </is>
@@ -544,14 +614,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ARE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>UAE</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ARE</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>High income</t>
@@ -559,10 +629,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>ae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ae.png)</t>
         </is>
@@ -571,14 +651,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ARG</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -586,10 +666,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>ar</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ar.png)</t>
         </is>
@@ -598,25 +688,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Armenia</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>am</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/am.png)</t>
         </is>
@@ -625,25 +725,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>ATG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Antigua</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ATG</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>ag</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ag.png)</t>
         </is>
@@ -652,14 +762,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AUS</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>High income</t>
@@ -667,10 +777,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>au</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/au.png)</t>
         </is>
@@ -679,14 +799,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AUT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AUT</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>High income</t>
@@ -694,10 +814,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>at</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/at.png)</t>
         </is>
@@ -706,14 +836,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AZE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Azerbaijan</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -721,10 +851,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>az</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/az.png)</t>
         </is>
@@ -733,14 +873,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Burundi</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BDI</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -748,10 +888,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>bi</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bi.png)</t>
         </is>
@@ -760,14 +910,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BEL</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>High income</t>
@@ -775,10 +925,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>be</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/be.png)</t>
         </is>
@@ -787,25 +947,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Benin</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BEN</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>bj</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bj.png)</t>
         </is>
@@ -814,14 +984,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Burkina Faso</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BFA</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -829,10 +999,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>bf</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bf.png)</t>
         </is>
@@ -841,25 +1021,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>BGD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Bangladesh</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BGD</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>bd</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bd.png)</t>
         </is>
@@ -868,14 +1058,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BGR</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -883,10 +1073,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>bg</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bg.png)</t>
         </is>
@@ -895,14 +1095,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>BHR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Bahrain</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BHR</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>High income</t>
@@ -910,10 +1110,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>bh</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bh.png)</t>
         </is>
@@ -922,14 +1132,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Bahamas</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BHS</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>High income</t>
@@ -937,10 +1147,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>bs</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bs.png)</t>
         </is>
@@ -949,14 +1169,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>BIH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BIH</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -964,10 +1184,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>ba</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ba.png)</t>
         </is>
@@ -976,14 +1206,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>BLR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Belarus</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -991,10 +1221,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>by</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/by.png)</t>
         </is>
@@ -1003,25 +1243,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>BLZ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Belize</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BLZ</t>
-        </is>
-      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>bz</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bz.png)</t>
         </is>
@@ -1030,14 +1280,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>BMU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Bermuda</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BMU</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1045,10 +1295,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>bm</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bm.png)</t>
         </is>
@@ -1057,14 +1317,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Bolivia</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BOL</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1072,10 +1332,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>bo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bo.png)</t>
         </is>
@@ -1084,14 +1354,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>BRA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BRA</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1099,10 +1369,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>br</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/br.png)</t>
         </is>
@@ -1111,14 +1391,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>BRB</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Barbados</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BRB</t>
-        </is>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1126,10 +1406,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>bb</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bb.png)</t>
         </is>
@@ -1138,14 +1428,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>BRN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Brunei</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BRN</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1153,10 +1443,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>bn</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bn.png)</t>
         </is>
@@ -1165,14 +1465,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Bhutan</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>BTN</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1180,10 +1480,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>bt</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bt.png)</t>
         </is>
@@ -1192,14 +1502,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Botswana</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>BWA</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1207,10 +1517,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>bw</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/bw.png)</t>
         </is>
@@ -1219,14 +1539,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Central African Republic</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CAF</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -1234,10 +1554,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>cf</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cf.png)</t>
         </is>
@@ -1246,14 +1576,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CAN</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1261,10 +1591,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>ca</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ca.png)</t>
         </is>
@@ -1273,14 +1613,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1288,10 +1628,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>ch</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ch.png)</t>
         </is>
@@ -1300,25 +1650,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CHL</t>
-        </is>
-      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>cl</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cl.png)</t>
         </is>
@@ -1327,14 +1687,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>CHN</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CHN</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1342,10 +1702,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>cn</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cn.png)</t>
         </is>
@@ -1354,14 +1724,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>CIV</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Cote dIvoire</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CIV</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1369,10 +1739,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>ci</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ci.png)</t>
         </is>
@@ -1381,14 +1761,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CMR</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1396,10 +1776,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>cm</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cm.png)</t>
         </is>
@@ -1408,14 +1798,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>DR Congo</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -1423,10 +1813,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>cd</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cd.png)</t>
         </is>
@@ -1435,14 +1835,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>COG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Congo</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>COG</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1450,10 +1850,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>cg</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cg.png)</t>
         </is>
@@ -1462,14 +1872,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1477,10 +1887,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>co</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/co.png)</t>
         </is>
@@ -1489,14 +1909,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Cape Verde</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1504,10 +1924,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>cv</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cv.png)</t>
         </is>
@@ -1516,14 +1946,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CRI</t>
-        </is>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1531,10 +1961,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>cr</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cr.png)</t>
         </is>
@@ -1543,14 +1983,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Cuba</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CUB</t>
-        </is>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1558,10 +1998,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>cu</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cu.png)</t>
         </is>
@@ -1570,14 +2020,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>CUW</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Curaçao</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CUW</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1585,10 +2035,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>cw</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cw.png)</t>
         </is>
@@ -1597,14 +2057,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>CYM</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Cayman Islands</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CYM</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1612,10 +2072,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>ky</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ky.png)</t>
         </is>
@@ -1624,14 +2094,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>CYP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CYP</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1639,10 +2109,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>cy</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cy.png)</t>
         </is>
@@ -1651,14 +2131,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CZE</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1666,10 +2146,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>cz</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/cz.png)</t>
         </is>
@@ -1678,14 +2168,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1693,10 +2183,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>de</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/de.png)</t>
         </is>
@@ -1705,14 +2205,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Djibouti</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1720,10 +2220,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>dj</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/dj.png)</t>
         </is>
@@ -1732,14 +2242,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>DNK</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DNK</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1747,10 +2257,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>dk</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/dk.png)</t>
         </is>
@@ -1759,14 +2279,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Dominican Republic</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DOM</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1774,10 +2294,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>do</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/do.png)</t>
         </is>
@@ -1786,25 +2316,35 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>DZA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Algeria</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DZA</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>dz</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/dz.png)</t>
         </is>
@@ -1813,14 +2353,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECU</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -1828,10 +2368,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>ec</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ec.png)</t>
         </is>
@@ -1840,14 +2390,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>EGY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Egypt</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>EGY</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -1855,10 +2405,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>eg</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/eg.png)</t>
         </is>
@@ -1867,14 +2427,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>ERI</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ERI</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -1882,10 +2442,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>er</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/er.png)</t>
         </is>
@@ -1894,14 +2464,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1909,10 +2479,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>es</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/es.png)</t>
         </is>
@@ -1921,14 +2501,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>EST</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1936,10 +2516,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>ee</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ee.png)</t>
         </is>
@@ -1948,14 +2538,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Ethiopia</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ETH</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -1963,10 +2553,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>et</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/et.png)</t>
         </is>
@@ -1975,14 +2575,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>FIN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>High income</t>
@@ -1990,10 +2590,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>fi</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/fi.png)</t>
         </is>
@@ -2002,25 +2612,35 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>FJI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>FJI</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>fj</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/fj.png)</t>
         </is>
@@ -2029,14 +2649,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>FRA</t>
-        </is>
-      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2044,10 +2664,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/fr.png)</t>
         </is>
@@ -2056,14 +2686,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>GAB</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Gabon</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GAB</t>
-        </is>
-      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -2071,10 +2701,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>ga</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ga.png)</t>
         </is>
@@ -2083,14 +2723,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2098,10 +2738,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>gb</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gb.png)</t>
         </is>
@@ -2110,25 +2760,35 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>GEO</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>ge</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ge.png)</t>
         </is>
@@ -2137,14 +2797,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GHA</t>
-        </is>
-      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -2152,10 +2812,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>gh</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gh.png)</t>
         </is>
@@ -2164,14 +2834,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>GIN</t>
-        </is>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -2179,10 +2849,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>gn</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gn.png)</t>
         </is>
@@ -2191,14 +2871,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Gambia</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>GMB</t>
-        </is>
-      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -2206,10 +2886,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>gm</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gm.png)</t>
         </is>
@@ -2218,14 +2908,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>GRC</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GRC</t>
-        </is>
-      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2233,10 +2923,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>gr</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gr.png)</t>
         </is>
@@ -2245,14 +2945,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>GRL</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>Greenland</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GRL</t>
-        </is>
-      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2260,10 +2960,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>gl</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gl.png)</t>
         </is>
@@ -2272,25 +2982,35 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>GTM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GTM</t>
-        </is>
-      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>gt</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gt.png)</t>
         </is>
@@ -2299,25 +3019,35 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>Guyana</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GUY</t>
-        </is>
-      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>gy</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/gy.png)</t>
         </is>
@@ -2326,14 +3056,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>HKG</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Hong Kong</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>HKG</t>
-        </is>
-      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2341,10 +3071,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>hk</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/hk.png)</t>
         </is>
@@ -2353,14 +3093,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>Honduras</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>HND</t>
-        </is>
-      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -2368,10 +3108,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>hn</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/hn.png)</t>
         </is>
@@ -2380,14 +3130,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>HRV</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2395,10 +3145,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/hr.png)</t>
         </is>
@@ -2407,25 +3167,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>HTI</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>Haiti</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>HTI</t>
-        </is>
-      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>ht</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ht.png)</t>
         </is>
@@ -2434,14 +3204,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>HUN</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2449,10 +3219,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>hu</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/hu.png)</t>
         </is>
@@ -2461,14 +3241,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>IDN</t>
-        </is>
-      </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -2476,10 +3256,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/id.png)</t>
         </is>
@@ -2488,14 +3278,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -2503,10 +3293,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>in</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/in.png)</t>
         </is>
@@ -2515,14 +3315,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>IRL</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>IRL</t>
-        </is>
-      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2530,10 +3330,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>ie</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ie.png)</t>
         </is>
@@ -2542,25 +3352,35 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>IRN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>IRN</t>
-        </is>
-      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>ir</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ir.png)</t>
         </is>
@@ -2569,25 +3389,35 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>IRQ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>IRQ</t>
-        </is>
-      </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>iq</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/iq.png)</t>
         </is>
@@ -2596,14 +3426,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>ISL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ISL</t>
-        </is>
-      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2611,10 +3441,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>is</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/is.png)</t>
         </is>
@@ -2623,14 +3463,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ISR</t>
-        </is>
-      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2638,10 +3478,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>il</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/il.png)</t>
         </is>
@@ -2650,14 +3500,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
-      </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2665,10 +3515,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>it</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/it.png)</t>
         </is>
@@ -2677,14 +3537,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>JAM</t>
-        </is>
-      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -2692,10 +3552,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>jm</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/jm.png)</t>
         </is>
@@ -2704,14 +3574,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>JOR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>Jordan</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>JOR</t>
-        </is>
-      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -2719,10 +3589,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>jo</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/jo.png)</t>
         </is>
@@ -2731,14 +3611,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2746,10 +3626,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>jp</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/jp.png)</t>
         </is>
@@ -2758,14 +3648,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>KAZ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Kazakhstan</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -2773,10 +3663,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>kz</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/kz.png)</t>
         </is>
@@ -2785,25 +3685,35 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>Kenya</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>KEN</t>
-        </is>
-      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>ke</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ke.png)</t>
         </is>
@@ -2812,25 +3722,35 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>KGZ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>Kyrgyzstan</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/kg.png)</t>
         </is>
@@ -2839,25 +3759,35 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>Cambodia</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>KHM</t>
-        </is>
-      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>kh</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/kh.png)</t>
         </is>
@@ -2866,14 +3796,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>KOR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>KOR</t>
-        </is>
-      </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2881,10 +3811,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>kr</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/kr.png)</t>
         </is>
@@ -2893,14 +3833,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>KWT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>Kuwait</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>KWT</t>
-        </is>
-      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>High income</t>
@@ -2908,10 +3848,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>kw</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/kw.png)</t>
         </is>
@@ -2920,14 +3870,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>LAO</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>Laos</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>LAO</t>
-        </is>
-      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -2935,10 +3885,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>la</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/la.png)</t>
         </is>
@@ -2947,25 +3907,35 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>LBN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>Lebanon</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>LBN</t>
-        </is>
-      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>lb</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/lb.png)</t>
         </is>
@@ -2974,14 +3944,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>LBR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>Liberia</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>LBR</t>
-        </is>
-      </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -2989,10 +3959,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>lr</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/lr.png)</t>
         </is>
@@ -3001,14 +3981,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>Libya</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>LBY</t>
-        </is>
-      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3016,10 +3996,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>ly</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ly.png)</t>
         </is>
@@ -3028,14 +4018,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>LIE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>Liechtenstein</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>LIE</t>
-        </is>
-      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3043,10 +4033,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>li</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/li.png)</t>
         </is>
@@ -3055,14 +4055,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>LKA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>LKA</t>
-        </is>
-      </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3070,10 +4070,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>lk</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/lk.png)</t>
         </is>
@@ -3082,14 +4092,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>Lesotho</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>LSO</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3097,10 +4107,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>ls</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ls.png)</t>
         </is>
@@ -3109,25 +4129,35 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>lt</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/lt.png)</t>
         </is>
@@ -3136,14 +4166,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>LUX</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>LUX</t>
-        </is>
-      </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3151,10 +4181,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>lu</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/lu.png)</t>
         </is>
@@ -3163,25 +4203,35 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>LVA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>lv</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/lv.png)</t>
         </is>
@@ -3190,14 +4240,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>Macao SAR</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>MAC</t>
-        </is>
-      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3205,10 +4255,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>mo</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mo.png)</t>
         </is>
@@ -3217,14 +4277,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>Morocco</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>MAR</t>
-        </is>
-      </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3232,10 +4292,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>ma</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ma.png)</t>
         </is>
@@ -3244,14 +4314,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Monaco</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MCO</t>
-        </is>
-      </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3259,10 +4329,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>mc</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mc.png)</t>
         </is>
@@ -3271,25 +4351,35 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>MDA</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>Moldova</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>md</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/md.png)</t>
         </is>
@@ -3298,14 +4388,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>Madagascar</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>MDG</t>
-        </is>
-      </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -3313,10 +4403,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>mg</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mg.png)</t>
         </is>
@@ -3325,14 +4425,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>MDV</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>Maldives</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>MDV</t>
-        </is>
-      </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3340,10 +4440,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>mv</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mv.png)</t>
         </is>
@@ -3352,14 +4462,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3367,10 +4477,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>mx</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mx.png)</t>
         </is>
@@ -3379,14 +4499,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>MKD</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>TFYR Macedonia</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>MKD</t>
-        </is>
-      </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3394,10 +4514,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>mk</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mk.png)</t>
         </is>
@@ -3406,14 +4536,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>Mali</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>MLI</t>
-        </is>
-      </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -3421,10 +4551,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>ml</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ml.png)</t>
         </is>
@@ -3433,14 +4573,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>MLT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>MLT</t>
-        </is>
-      </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3448,10 +4588,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>mt</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mt.png)</t>
         </is>
@@ -3460,25 +4610,35 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>MMR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>Myanmar</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>MMR</t>
-        </is>
-      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mm.png)</t>
         </is>
@@ -3487,14 +4647,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>MNE</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>Montenegro</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>MNE</t>
-        </is>
-      </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3502,10 +4662,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>me</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/me.png)</t>
         </is>
@@ -3514,14 +4684,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>MNG</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>Mongolia</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>MNG</t>
-        </is>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3529,10 +4699,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>mn</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mn.png)</t>
         </is>
@@ -3541,14 +4721,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>Mozambique</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -3556,10 +4736,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>mz</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mz.png)</t>
         </is>
@@ -3568,25 +4758,35 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>Mauritania</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>MRT</t>
-        </is>
-      </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>mr</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mr.png)</t>
         </is>
@@ -3595,14 +4795,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>MUS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>Mauritius</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>MUS</t>
-        </is>
-      </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3610,10 +4810,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>mu</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mu.png)</t>
         </is>
@@ -3622,14 +4832,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>Malawi</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>MWI</t>
-        </is>
-      </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -3637,10 +4847,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>mw</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/mw.png)</t>
         </is>
@@ -3649,14 +4869,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>MYS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>Malaysia</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>MYS</t>
-        </is>
-      </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3664,10 +4884,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>my</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/my.png)</t>
         </is>
@@ -3676,14 +4906,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>Namibia</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>NAM</t>
-        </is>
-      </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -3691,10 +4921,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>na</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/na.png)</t>
         </is>
@@ -3703,14 +4943,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>NCL</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>New Caledonia</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>NCL</t>
-        </is>
-      </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3718,10 +4958,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>nc</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/nc.png)</t>
         </is>
@@ -3730,14 +4980,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>Niger</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>NER</t>
-        </is>
-      </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -3745,10 +4995,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ne.png)</t>
         </is>
@@ -3757,14 +5017,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>NGA</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>NGA</t>
-        </is>
-      </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3772,10 +5032,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>ng</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ng.png)</t>
         </is>
@@ -3784,14 +5054,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3799,10 +5069,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>ni</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ni.png)</t>
         </is>
@@ -3811,14 +5091,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3826,10 +5106,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>nl</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/nl.png)</t>
         </is>
@@ -3838,14 +5128,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>NOR</t>
-        </is>
-      </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3853,10 +5143,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/no.png)</t>
         </is>
@@ -3865,25 +5165,35 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>NPL</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>NPL</t>
-        </is>
-      </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>np</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/np.png)</t>
         </is>
@@ -3892,14 +5202,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>New Zealand</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>NZL</t>
-        </is>
-      </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3907,10 +5217,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>nz</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/nz.png)</t>
         </is>
@@ -3919,14 +5239,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>OMN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>Oman</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>OMN</t>
-        </is>
-      </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>High income</t>
@@ -3934,10 +5254,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>om</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/om.png)</t>
         </is>
@@ -3946,14 +5276,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>PAK</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -3961,10 +5291,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>pk</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pk.png)</t>
         </is>
@@ -3973,25 +5313,35 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>Panama</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>PAN</t>
-        </is>
-      </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>pa</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pa.png)</t>
         </is>
@@ -4000,14 +5350,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>Peru</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>PER</t>
-        </is>
-      </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -4015,10 +5365,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pe.png)</t>
         </is>
@@ -4027,14 +5387,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>Philippines</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>PHL</t>
-        </is>
-      </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4042,10 +5402,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>ph</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ph.png)</t>
         </is>
@@ -4054,14 +5424,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
+          <t>PNG</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>Papua New Guinea</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>PNG</t>
-        </is>
-      </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4069,10 +5439,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>pg</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pg.png)</t>
         </is>
@@ -4081,14 +5461,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>POL</t>
-        </is>
-      </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4096,10 +5476,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>pl</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pl.png)</t>
         </is>
@@ -4108,14 +5498,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>PRK</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>North Korea</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>PRK</t>
-        </is>
-      </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4123,10 +5513,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
           <t>kp</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/kp.png)</t>
         </is>
@@ -4135,14 +5535,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>PRT</t>
-        </is>
-      </c>
       <c r="C141" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4150,10 +5550,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>pt</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pt.png)</t>
         </is>
@@ -4162,25 +5572,35 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>PRY</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>PRY</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Upper middle income</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
           <t>py</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/py.png)</t>
         </is>
@@ -4189,14 +5609,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>PSE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>Gaza Strip</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>PSE</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4204,10 +5624,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>ps</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ps.png)</t>
         </is>
@@ -4216,14 +5646,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>PYF</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
           <t>French Polynesia</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>PYF</t>
-        </is>
-      </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4231,10 +5661,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
           <t>pf</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/pf.png)</t>
         </is>
@@ -4243,14 +5683,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>QAT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>Qatar</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>QAT</t>
-        </is>
-      </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4258,10 +5698,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
           <t>qa</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/qa.png)</t>
         </is>
@@ -4270,25 +5720,35 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ROU</t>
-        </is>
-      </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>ro</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ro.png)</t>
         </is>
@@ -4297,14 +5757,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -4312,10 +5772,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
           <t>ru</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ru.png)</t>
         </is>
@@ -4324,14 +5794,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>RWA</t>
-        </is>
-      </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4339,10 +5809,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
           <t>rw</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/rw.png)</t>
         </is>
@@ -4351,14 +5831,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>SAU</t>
-        </is>
-      </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4366,10 +5846,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>sa</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sa.png)</t>
         </is>
@@ -4378,25 +5868,35 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>Sudan</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>SDN</t>
-        </is>
-      </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Low income</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>sd</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sd.png)</t>
         </is>
@@ -4405,14 +5905,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4420,10 +5920,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>sn</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sn.png)</t>
         </is>
@@ -4432,14 +5942,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>Singapore</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>SGP</t>
-        </is>
-      </c>
       <c r="C152" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4447,10 +5957,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>sg</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sg.png)</t>
         </is>
@@ -4459,14 +5979,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>SLE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>Sierra Leone</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>SLE</t>
-        </is>
-      </c>
       <c r="C153" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4474,10 +5994,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sl.png)</t>
         </is>
@@ -4486,14 +6016,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>SLV</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>SLV</t>
-        </is>
-      </c>
       <c r="C154" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4501,10 +6031,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>sv</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sv.png)</t>
         </is>
@@ -4513,14 +6053,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>San Marino</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>SMR</t>
-        </is>
-      </c>
       <c r="C155" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4528,10 +6068,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
           <t>sm</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sm.png)</t>
         </is>
@@ -4540,14 +6090,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
           <t>Somalia</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>SOM</t>
-        </is>
-      </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4555,10 +6105,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>so</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/so.png)</t>
         </is>
@@ -4567,14 +6127,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>SRB</t>
-        </is>
-      </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -4582,10 +6142,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>rs</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/rs.png)</t>
         </is>
@@ -4594,14 +6164,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>South Sudan</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>SSD</t>
-        </is>
-      </c>
       <c r="C158" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4609,10 +6179,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>ss</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ss.png)</t>
         </is>
@@ -4621,14 +6201,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>STP</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
           <t>Sao Tome and Principe</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>STP</t>
-        </is>
-      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4636,10 +6216,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>st</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/st.png)</t>
         </is>
@@ -4648,20 +6238,30 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>SUN</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>Former USSR</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SUN</t>
-        </is>
-      </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>Low income</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/NA.png)</t>
         </is>
@@ -4670,14 +6270,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>SUR</t>
-        </is>
-      </c>
       <c r="C161" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -4685,10 +6285,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
           <t>sr</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sr.png)</t>
         </is>
@@ -4697,14 +6307,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
       <c r="C162" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4712,10 +6322,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
           <t>sk</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sk.png)</t>
         </is>
@@ -4724,14 +6344,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
+          <t>SVN</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SVN</t>
-        </is>
-      </c>
       <c r="C163" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4739,10 +6359,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>si</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/si.png)</t>
         </is>
@@ -4751,14 +6381,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>SWE</t>
-        </is>
-      </c>
       <c r="C164" t="inlineStr">
         <is>
           <t>High income</t>
@@ -4766,10 +6396,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>se</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/se.png)</t>
         </is>
@@ -4778,14 +6418,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>SWZ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>Swaziland</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>SWZ</t>
-        </is>
-      </c>
       <c r="C165" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -4793,10 +6433,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>sz</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sz.png)</t>
         </is>
@@ -4805,25 +6455,35 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>SYC</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>Seychelles</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>SYC</t>
-        </is>
-      </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>sc</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sc.png)</t>
         </is>
@@ -4832,25 +6492,35 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>SYR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Syria</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>SYR</t>
-        </is>
-      </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Low income</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>sy</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/sy.png)</t>
         </is>
@@ -4859,14 +6529,14 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Chad</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>TCD</t>
-        </is>
-      </c>
       <c r="C168" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4874,10 +6544,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
           <t>td</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/td.png)</t>
         </is>
@@ -4886,14 +6566,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>TGO</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>TGO</t>
-        </is>
-      </c>
       <c r="C169" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -4901,10 +6581,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>tg</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tg.png)</t>
         </is>
@@ -4913,14 +6603,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>THA</t>
-        </is>
-      </c>
       <c r="C170" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -4928,10 +6618,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>th</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/th.png)</t>
         </is>
@@ -4940,25 +6640,35 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>Tajikistan</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>tj</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tj.png)</t>
         </is>
@@ -4967,14 +6677,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>TKM</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
           <t>Turkmenistan</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
       <c r="C172" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -4982,10 +6692,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>tm</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tm.png)</t>
         </is>
@@ -4994,14 +6714,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>TTO</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>TTO</t>
-        </is>
-      </c>
       <c r="C173" t="inlineStr">
         <is>
           <t>High income</t>
@@ -5009,10 +6729,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
           <t>tt</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tt.png)</t>
         </is>
@@ -5021,25 +6751,35 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Tunisia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>TUN</t>
-        </is>
-      </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
           <t>tn</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tn.png)</t>
         </is>
@@ -5048,14 +6788,14 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>TUR</t>
-        </is>
-      </c>
       <c r="C175" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -5063,10 +6803,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>tr</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tr.png)</t>
         </is>
@@ -5075,14 +6825,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>TWN</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>TWN</t>
-        </is>
-      </c>
       <c r="C176" t="inlineStr">
         <is>
           <t>High income</t>
@@ -5090,10 +6840,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
           <t>tw</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tw.png)</t>
         </is>
@@ -5102,25 +6862,35 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>Tanzania</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>TZA</t>
-        </is>
-      </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
           <t>tz</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/tz.png)</t>
         </is>
@@ -5129,14 +6899,14 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
           <t>Uganda</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>Low income</t>
@@ -5144,10 +6914,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>ug</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ug.png)</t>
         </is>
@@ -5156,14 +6936,14 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
       <c r="C179" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -5171,10 +6951,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>ua</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ua.png)</t>
         </is>
@@ -5183,25 +6973,35 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>URY</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>URY</t>
-        </is>
-      </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Upper middle income</t>
+          <t>High income</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>uy</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/uy.png)</t>
         </is>
@@ -5225,10 +7025,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Developed</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
           <t>us</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/us.png)</t>
         </is>
@@ -5237,14 +7047,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>UZB</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
           <t>Uzbekistan</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
       <c r="C182" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -5252,10 +7062,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
           <t>uz</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/uz.png)</t>
         </is>
@@ -5264,14 +7084,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>VEN</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
           <t>Venezuela</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>VEN</t>
-        </is>
-      </c>
       <c r="C183" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -5279,10 +7099,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
           <t>ve</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ve.png)</t>
         </is>
@@ -5291,14 +7121,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>VGB</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
           <t>British Virgin Islands</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>VGB</t>
-        </is>
-      </c>
       <c r="C184" t="inlineStr">
         <is>
           <t>High income</t>
@@ -5306,10 +7136,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
           <t>vg</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/vg.png)</t>
         </is>
@@ -5318,14 +7158,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>VNM</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>Viet Nam</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>VNM</t>
-        </is>
-      </c>
       <c r="C185" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -5333,10 +7173,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
           <t>vn</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/vn.png)</t>
         </is>
@@ -5345,14 +7195,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>VUT</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>Vanuatu</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
       <c r="C186" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -5360,10 +7210,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>vu</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/vu.png)</t>
         </is>
@@ -5372,14 +7232,14 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>WSM</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
           <t>Samoa</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>WSM</t>
-        </is>
-      </c>
       <c r="C187" t="inlineStr">
         <is>
           <t>Lower middle income</t>
@@ -5387,10 +7247,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
           <t>ws</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ws.png)</t>
         </is>
@@ -5399,25 +7269,35 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>YEM</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>Yemen</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Low income</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
           <t>ye</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/ye.png)</t>
         </is>
@@ -5426,14 +7306,14 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>South Africa</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
       <c r="C189" t="inlineStr">
         <is>
           <t>Upper middle income</t>
@@ -5441,10 +7321,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>za</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/za.png)</t>
         </is>
@@ -5453,25 +7343,35 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>Zambia</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Lower middle income</t>
+          <t>Low income</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
           <t>zm</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/zm.png)</t>
         </is>
@@ -5480,25 +7380,35 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Low income</t>
+          <t>Lower middle income</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Developing</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
           <t>zw</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>![](http://flagpedia.net/data/flags/mini/zw.png)</t>
         </is>
